--- a/Atlas application All heatmaps ver2/data/data.xlsx
+++ b/Atlas application All heatmaps ver2/data/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBBC30-C1B1-1245-A26E-C02F4B636623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="13395" windowHeight="5715"/>
+    <workbookView xWindow="-37200" yWindow="3260" windowWidth="41180" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_main_final" sheetId="1" r:id="rId1"/>
@@ -502,8 +508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,6 +826,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -981,10 +993,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,6 +1049,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1083,7 +1099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,9 +1132,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,6 +1184,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1326,19 +1376,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BQ14" sqref="BQ14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1393,22 +1443,22 @@
       <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y1" t="s">
@@ -1547,7 +1597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69">
       <c r="A2" s="1">
         <v>43506</v>
       </c>
@@ -1584,22 +1634,22 @@
       <c r="R2">
         <v>44</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>0.88778550000000001</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>0.177397</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>33</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>1.1956610000000001</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>7.8539999999999999E-2</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>180</v>
       </c>
       <c r="Y2">
@@ -1702,7 +1752,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69">
       <c r="A3" s="1">
         <v>43506</v>
       </c>
@@ -1893,7 +1943,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69">
       <c r="A4" s="1">
         <v>43507</v>
       </c>
@@ -2093,7 +2143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2302,7 +2352,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2511,7 +2561,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69">
       <c r="A7" s="1">
         <v>43507</v>
       </c>
@@ -2720,7 +2770,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69">
       <c r="A8" s="1">
         <v>43507</v>
       </c>
@@ -2929,7 +2979,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69">
       <c r="A9" s="1">
         <v>43507</v>
       </c>
@@ -3138,7 +3188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69">
       <c r="A10" s="1">
         <v>43507</v>
       </c>
@@ -3347,7 +3397,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69">
       <c r="A11" s="1">
         <v>43507</v>
       </c>
@@ -3556,7 +3606,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69">
       <c r="A12" s="1">
         <v>43507</v>
       </c>
@@ -3765,7 +3815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69">
       <c r="A13" s="1">
         <v>43507</v>
       </c>
@@ -3965,7 +4015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69">
       <c r="A14" s="1">
         <v>43507</v>
       </c>
@@ -4102,7 +4152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69">
       <c r="A15" s="1">
         <v>43507</v>
       </c>
@@ -4311,7 +4361,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69">
       <c r="A16" s="1">
         <v>43507</v>
       </c>
@@ -4520,7 +4570,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69">
       <c r="A17" s="1">
         <v>43507</v>
       </c>
@@ -4711,7 +4761,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69">
       <c r="A18" s="1">
         <v>43507</v>
       </c>
@@ -4920,7 +4970,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69">
       <c r="A19" s="1">
         <v>43507</v>
       </c>
@@ -5093,7 +5143,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69">
       <c r="A20" s="1">
         <v>43507</v>
       </c>
@@ -5212,7 +5262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69">
       <c r="A21" s="1">
         <v>43507</v>
       </c>
@@ -5421,7 +5471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69">
       <c r="A22" s="1">
         <v>43507</v>
       </c>
@@ -5630,7 +5680,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69">
       <c r="A23" s="1">
         <v>43507</v>
       </c>
@@ -5839,7 +5889,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69">
       <c r="A24" s="1">
         <v>43507</v>
       </c>
@@ -6048,7 +6098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69">
       <c r="A25" s="1">
         <v>43508</v>
       </c>
@@ -6257,7 +6307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69">
       <c r="A26" s="1">
         <v>43508</v>
       </c>
@@ -6430,7 +6480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69">
       <c r="A27" s="1">
         <v>43508</v>
       </c>
@@ -6639,7 +6689,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69">
       <c r="A28" s="1">
         <v>43508</v>
       </c>
@@ -6848,7 +6898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69">
       <c r="A29" s="1">
         <v>43508</v>
       </c>
@@ -7057,7 +7107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69">
       <c r="A30" s="1">
         <v>43508</v>
       </c>
@@ -7185,7 +7235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69">
       <c r="A31" s="1">
         <v>43508</v>
       </c>
@@ -7313,7 +7363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69">
       <c r="A32" s="1">
         <v>43508</v>
       </c>
@@ -7522,7 +7572,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69">
       <c r="A33" s="1">
         <v>43508</v>
       </c>
@@ -7722,7 +7772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69">
       <c r="A34" s="1">
         <v>43508</v>
       </c>
@@ -7931,7 +7981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69">
       <c r="A35" s="1">
         <v>43508</v>
       </c>
@@ -8140,7 +8190,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69">
       <c r="A36" s="1">
         <v>43508</v>
       </c>
@@ -8349,7 +8399,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69">
       <c r="A37" s="1">
         <v>43508</v>
       </c>
@@ -8540,7 +8590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69">
       <c r="A38" s="1">
         <v>43508</v>
       </c>
@@ -8713,7 +8763,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69">
       <c r="A39" s="1">
         <v>43508</v>
       </c>
@@ -8922,7 +8972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69">
       <c r="A40" s="1">
         <v>43508</v>
       </c>
@@ -9131,7 +9181,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69">
       <c r="A41" s="1">
         <v>43508</v>
       </c>
@@ -9340,7 +9390,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69">
       <c r="A42" s="1">
         <v>43508</v>
       </c>
@@ -9549,7 +9599,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69">
       <c r="A43" s="1">
         <v>43508</v>
       </c>
@@ -9758,7 +9808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69">
       <c r="A44" s="1">
         <v>43508</v>
       </c>
@@ -9967,7 +10017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69">
       <c r="A45" s="1">
         <v>43508</v>
       </c>
@@ -10149,7 +10199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69">
       <c r="A46" s="1">
         <v>43508</v>
       </c>
@@ -10358,7 +10408,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69">
       <c r="A47" s="1">
         <v>43508</v>
       </c>
@@ -10567,7 +10617,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69">
       <c r="A48" s="1">
         <v>43508</v>
       </c>
@@ -10668,7 +10718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69">
       <c r="A49" s="1">
         <v>43509</v>
       </c>
@@ -10859,7 +10909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69">
       <c r="A50" s="1">
         <v>43509</v>
       </c>
@@ -10906,7 +10956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69">
       <c r="A51" s="1">
         <v>43509</v>
       </c>
@@ -11079,7 +11129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69">
       <c r="A52" s="1">
         <v>43509</v>
       </c>
@@ -11288,7 +11338,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69">
       <c r="A53" s="1">
         <v>43509</v>
       </c>
@@ -11497,7 +11547,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69">
       <c r="A54" s="1">
         <v>43509</v>
       </c>
@@ -11706,7 +11756,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69">
       <c r="A55" s="1">
         <v>43509</v>
       </c>
@@ -11879,7 +11929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69">
       <c r="A56" s="1">
         <v>43509</v>
       </c>
@@ -12070,7 +12120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69">
       <c r="A57" s="1">
         <v>43509</v>
       </c>
@@ -12279,7 +12329,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69">
       <c r="A58" s="1">
         <v>43509</v>
       </c>
@@ -12488,7 +12538,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69">
       <c r="A59" s="1">
         <v>43509</v>
       </c>
@@ -12697,7 +12747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69">
       <c r="A60" s="1">
         <v>43509</v>
       </c>
@@ -12861,7 +12911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69">
       <c r="A61" s="1">
         <v>43509</v>
       </c>
@@ -12962,7 +13012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69">
       <c r="A62" s="1">
         <v>43509</v>
       </c>
@@ -13054,7 +13104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69">
       <c r="A63" s="1">
         <v>43509</v>
       </c>
@@ -13254,7 +13304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69">
       <c r="A64" s="1">
         <v>43509</v>
       </c>
@@ -13445,7 +13495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69">
       <c r="A65" s="1">
         <v>43509</v>
       </c>
@@ -13483,7 +13533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69">
       <c r="A66" s="1">
         <v>43509</v>
       </c>
@@ -13530,7 +13580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69">
       <c r="A67" s="1">
         <v>43509</v>
       </c>
@@ -13586,7 +13636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69">
       <c r="A68" s="1">
         <v>43509</v>
       </c>
@@ -13678,7 +13728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69">
       <c r="A69" s="1">
         <v>43509</v>
       </c>
@@ -13743,7 +13793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69">
       <c r="A70" s="1">
         <v>43509</v>
       </c>
@@ -13853,7 +13903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:69">
       <c r="A71" s="1">
         <v>43509</v>
       </c>
@@ -13864,7 +13914,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:69">
       <c r="A72" s="1">
         <v>43509</v>
       </c>
@@ -14055,7 +14105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:69">
       <c r="A73" s="1">
         <v>43509</v>
       </c>
@@ -14264,7 +14314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:69">
       <c r="A74" s="1">
         <v>43509</v>
       </c>
@@ -14473,7 +14523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:69">
       <c r="A75" s="1">
         <v>43509</v>
       </c>
@@ -14538,7 +14588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:69">
       <c r="A76" s="1">
         <v>43509</v>
       </c>
@@ -14567,7 +14617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:69">
       <c r="A77" s="1">
         <v>43509</v>
       </c>
@@ -14695,7 +14745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:69">
       <c r="A78" s="1">
         <v>43509</v>
       </c>
@@ -14832,7 +14882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69">
       <c r="A79" s="1">
         <v>43509</v>
       </c>
@@ -14942,7 +14992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69">
       <c r="A80" s="1">
         <v>43509</v>
       </c>
@@ -14980,7 +15030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69">
       <c r="A81" s="1">
         <v>43509</v>
       </c>
@@ -14991,7 +15041,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69">
       <c r="A82" s="1">
         <v>43509</v>
       </c>
@@ -15182,7 +15232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69">
       <c r="A83" s="1">
         <v>43509</v>
       </c>
@@ -15265,7 +15315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69">
       <c r="A84" s="1">
         <v>43510</v>
       </c>
@@ -15312,7 +15362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69">
       <c r="A85" s="1">
         <v>43510</v>
       </c>
@@ -15521,7 +15571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69">
       <c r="A86" s="1">
         <v>43510</v>
       </c>
@@ -15730,7 +15780,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69">
       <c r="A87" s="1">
         <v>43510</v>
       </c>
@@ -15939,7 +15989,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69">
       <c r="A88" s="1">
         <v>43510</v>
       </c>
@@ -16094,7 +16144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69">
       <c r="A89" s="1">
         <v>43510</v>
       </c>
@@ -16276,7 +16326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69">
       <c r="A90" s="1">
         <v>43510</v>
       </c>
@@ -16476,7 +16526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69">
       <c r="A91" s="1">
         <v>43510</v>
       </c>
@@ -16685,7 +16735,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69">
       <c r="A92" s="1">
         <v>43510</v>
       </c>
@@ -16894,7 +16944,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69">
       <c r="A93" s="1">
         <v>43510</v>
       </c>

--- a/Atlas application All heatmaps ver2/data/data.xlsx
+++ b/Atlas application All heatmaps ver2/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/c870b7ff5e4342f7969b500139a3da9c/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBBC30-C1B1-1245-A26E-C02F4B636623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569710B-81D1-884B-AC13-0BF4E00A0469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37200" yWindow="3260" windowWidth="41180" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14060" yWindow="500" windowWidth="19540" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_main_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>date</t>
   </si>
@@ -31,478 +31,349 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>child_0_est</t>
+    <t>ASD</t>
   </si>
   <si>
-    <t>child_0_se</t>
+    <t>Any mental</t>
   </si>
   <si>
-    <t>child_0_n</t>
+    <t>Organic mental</t>
   </si>
   <si>
-    <t>child_1_est</t>
+    <t>Psychoactive sub use</t>
   </si>
   <si>
-    <t>child_1_se</t>
+    <t xml:space="preserve">Schizophrenia spectrum </t>
   </si>
   <si>
-    <t>child_1_n</t>
+    <t>Schizophrenia</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_est</t>
+    <t xml:space="preserve">Any mood </t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_se</t>
+    <t>Bipolar disorder</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_n</t>
+    <t>Depression</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_est</t>
+    <t>Neurotic/stress disorder</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_se</t>
+    <t>OCD</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_n</t>
+    <t>Behav synd-physiol</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_est</t>
+    <t>Anorexia nervosa</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_se</t>
+    <t>Adult personality disorder</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_n</t>
+    <t>Intellectual disability</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_est</t>
+    <t>Psych dev dis.not ASD</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_se</t>
+    <t>Behav dis-child onset</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_n</t>
+    <t>ADHD</t>
   </si>
   <si>
-    <t>m_est</t>
+    <t>Tic disorder</t>
   </si>
   <si>
-    <t>m_se</t>
+    <t>Mental-unspecified</t>
   </si>
   <si>
-    <t>m_n</t>
+    <t>Any diabetes</t>
   </si>
   <si>
-    <t>f_est</t>
+    <t>Diabetes outside preg</t>
   </si>
   <si>
-    <t>f_se</t>
+    <t>Type 1 diabetes</t>
   </si>
   <si>
-    <t>f_n</t>
+    <t>Type 2 diabetes</t>
   </si>
   <si>
-    <t>mm_est</t>
+    <t>Chronic+gest diab</t>
   </si>
   <si>
-    <t>mm_se</t>
+    <t>Obesity</t>
   </si>
   <si>
-    <t>mm_n</t>
+    <t>Any hypertension</t>
   </si>
   <si>
-    <t>mf_est</t>
+    <t>Hyper outside preg</t>
   </si>
   <si>
-    <t>mf_se</t>
+    <t>Chronic+gest hyper</t>
   </si>
   <si>
-    <t>mf_n</t>
+    <t>Preeclam/eclam</t>
   </si>
   <si>
-    <t>fm_est</t>
+    <t>Any birth defect</t>
   </si>
   <si>
-    <t>fm_se</t>
+    <t>CNS</t>
   </si>
   <si>
-    <t>fm_n</t>
+    <t>Eye</t>
   </si>
   <si>
-    <t>ff_est</t>
+    <t>Ear</t>
   </si>
   <si>
-    <t>ff_se</t>
+    <t>Heart</t>
   </si>
   <si>
-    <t>ff_n</t>
+    <t>Respiratory</t>
   </si>
   <si>
-    <t>mua_0_est</t>
+    <t>Lip</t>
   </si>
   <si>
-    <t>mua_0_se</t>
+    <t>Digestive system</t>
   </si>
   <si>
-    <t>mua_0_n</t>
+    <t>Genital</t>
   </si>
   <si>
-    <t>mua_1_est</t>
+    <t>Urinary tract</t>
   </si>
   <si>
-    <t>mua_1_se</t>
+    <t>Musculoskeletal</t>
   </si>
   <si>
-    <t>mua_1_n</t>
+    <t>Skin</t>
   </si>
   <si>
-    <t>pua_0_est</t>
+    <t>Other/chromos</t>
   </si>
   <si>
-    <t>pua_0_se</t>
+    <t>Chro/gene dis_ASD spe</t>
   </si>
   <si>
-    <t>pua_0_n</t>
+    <t>Any neurologic</t>
   </si>
   <si>
-    <t>pua_1_est</t>
+    <t>Inflammatory of CNS</t>
   </si>
   <si>
-    <t>pua_1_se</t>
+    <t>Systemic atrophies</t>
   </si>
   <si>
-    <t>pua_1_n</t>
+    <t>Extrapyramid</t>
   </si>
   <si>
-    <t>mcou_0_est</t>
+    <t xml:space="preserve">Other degenerative </t>
   </si>
   <si>
-    <t>mcou_0_se</t>
+    <t>Demyelinating of CNS</t>
   </si>
   <si>
-    <t>mcou_0_n</t>
+    <t>Episodic</t>
   </si>
   <si>
-    <t>mcou_1_est</t>
+    <t>Epilepsy</t>
   </si>
   <si>
-    <t>mcou_1_se</t>
+    <t>Nerve disorder</t>
   </si>
   <si>
-    <t>mcou_1_n</t>
+    <t>Polyneuropath</t>
   </si>
   <si>
-    <t>pcou_0_est</t>
+    <t xml:space="preserve">Myoneural </t>
   </si>
   <si>
-    <t>pcou_0_se</t>
+    <t xml:space="preserve">Cerebral palsy </t>
   </si>
   <si>
-    <t>pcou_0_n</t>
+    <t>Other neurologic</t>
   </si>
   <si>
-    <t>pcou_1_est</t>
+    <t>Thyrotoxicosis</t>
   </si>
   <si>
-    <t>pcou_1_se</t>
+    <t>Thyroiditis</t>
   </si>
   <si>
-    <t>pcou_1_n</t>
+    <t xml:space="preserve">Pri adrenocortical </t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Rheumatoid arthritis</t>
   </si>
   <si>
-    <t>mental</t>
+    <t>Juvenile arthritis</t>
   </si>
   <si>
-    <t>mental_organic</t>
+    <t>Dermatopolymyositis</t>
   </si>
   <si>
-    <t>mental_psychoactive</t>
+    <t>Polymyalgia</t>
   </si>
   <si>
-    <t>mental_schizo_spectrum</t>
+    <t>Scleroderma</t>
   </si>
   <si>
-    <t>mental_schizo</t>
+    <t>Lupus erythema</t>
   </si>
   <si>
-    <t>mental_mood</t>
+    <t>Sjogren</t>
   </si>
   <si>
-    <t>mental_mood_bipolar</t>
+    <t xml:space="preserve">Ankylos spondil </t>
   </si>
   <si>
-    <t>mental_mood_depression</t>
+    <t>Granulomato</t>
   </si>
   <si>
-    <t>mental_neurotic</t>
+    <t>Celiac</t>
   </si>
   <si>
-    <t>mental_neurotic_ocd</t>
+    <t>Crohn</t>
   </si>
   <si>
-    <t>mental_behavioral</t>
+    <t>Ulcerative colitis</t>
   </si>
   <si>
-    <t>mental_behavioral_anex</t>
+    <t>Pernicious anem</t>
   </si>
   <si>
-    <t>mental_adult</t>
+    <t>Hemolytic anem</t>
   </si>
   <si>
-    <t>mental_retardation</t>
+    <t>Purpura</t>
   </si>
   <si>
-    <t>mental_development</t>
+    <t>Multiple sclerosis</t>
   </si>
   <si>
-    <t>mental_emotional</t>
+    <t>Guillain-Bar</t>
   </si>
   <si>
-    <t>mental_emotional_adhd</t>
+    <t>Myasthen grav</t>
   </si>
   <si>
-    <t>mental_emotional_tic</t>
+    <t>Pemphigus</t>
   </si>
   <si>
-    <t>mental_unspecified</t>
+    <t>Psoriasis</t>
   </si>
   <si>
-    <t>cm_diabetes</t>
+    <t>Alopecia areata</t>
   </si>
   <si>
-    <t>cm_doutpreg</t>
+    <t>Vitiligo</t>
   </si>
   <si>
-    <t>cm_t1d</t>
+    <t xml:space="preserve">Any endocrine </t>
   </si>
   <si>
-    <t>cm_t2d</t>
+    <t>Any connective</t>
   </si>
   <si>
-    <t>cm_dinpreg</t>
+    <t>Any gastrointest</t>
   </si>
   <si>
-    <t>cm_obesity</t>
+    <t>Any blood</t>
   </si>
   <si>
-    <t>cm_hypertension</t>
+    <t>Any nervous</t>
   </si>
   <si>
-    <t>cm_hypoutpred</t>
+    <t>Any skin</t>
   </si>
   <si>
-    <t>cm_hypinpred</t>
+    <t>Any autoimmune</t>
   </si>
   <si>
-    <t>cm_preeclampsia</t>
+    <t>Asthma</t>
   </si>
   <si>
-    <t>bd</t>
+    <t>Allergies</t>
   </si>
   <si>
-    <t>bd_cns</t>
+    <t>Index child (f) log(HR)</t>
   </si>
   <si>
-    <t>bd_eye</t>
+    <t>SE</t>
   </si>
   <si>
-    <t>bd_ear</t>
+    <t>n</t>
   </si>
   <si>
-    <t>bd_heart</t>
+    <t>Index child (m) log(HR)</t>
   </si>
   <si>
-    <t>bd_respiratory</t>
+    <t>Brother log(HR)</t>
   </si>
   <si>
-    <t>bd_lip</t>
+    <t>Sister log(HR)</t>
   </si>
   <si>
-    <t>bd_digestive</t>
+    <t>Mat. half sister log(HR)</t>
   </si>
   <si>
-    <t>bd_genital</t>
+    <t>Pat. half sister log(HR)</t>
   </si>
   <si>
-    <t>bd_urinary</t>
+    <t>Mat. half brother log(HR)</t>
   </si>
   <si>
-    <t>bd_musculoskeletal</t>
+    <t>Pat. half brother log(HR)</t>
   </si>
   <si>
-    <t>bd_skin</t>
+    <t>Mother log(HR)</t>
   </si>
   <si>
-    <t>bd_other</t>
+    <t>Father log(HR)</t>
   </si>
   <si>
-    <t>bd_asdspecific</t>
+    <t>Mat. grandmother log(HR)</t>
   </si>
   <si>
-    <t>ne</t>
+    <t>Mat. grandfather log(HR)</t>
   </si>
   <si>
-    <t>ne_inflammatory</t>
+    <t>Pat. grandmother log(HR)</t>
   </si>
   <si>
-    <t>ne_systemic</t>
+    <t>Pat. grandfather log(HR)</t>
   </si>
   <si>
-    <t>ne_extrapyramid</t>
+    <t>Mat. aunt log(HR)</t>
   </si>
   <si>
-    <t>ne_otherdegene</t>
+    <t>Mat. uncle log(HR)</t>
   </si>
   <si>
-    <t>ne_demyelinating</t>
+    <t>Pat. aunt log(HR)</t>
   </si>
   <si>
-    <t>ne_episodic</t>
+    <t>Pat. uncle log(HR)</t>
   </si>
   <si>
-    <t>ne_episodic_epilep</t>
+    <t>Mat. cousin (f) log(HR)</t>
   </si>
   <si>
-    <t>ne_nerve</t>
+    <t>Mat. cousin (m) log(HR)</t>
   </si>
   <si>
-    <t>ne_polynepathi</t>
+    <t>Pat. cousin (f) log(HR)</t>
   </si>
   <si>
-    <t>ne_myoneural</t>
-  </si>
-  <si>
-    <t>ne_cerebralpal</t>
-  </si>
-  <si>
-    <t>ne_other</t>
-  </si>
-  <si>
-    <t>ai_t1d</t>
-  </si>
-  <si>
-    <t>ai_thyrotoxico</t>
-  </si>
-  <si>
-    <t>ai_thyroiditis</t>
-  </si>
-  <si>
-    <t>ai_adrenocortical</t>
-  </si>
-  <si>
-    <t>ai_rheumatoid</t>
-  </si>
-  <si>
-    <t>ai_juvenile</t>
-  </si>
-  <si>
-    <t>ai_dermatopolymyo</t>
-  </si>
-  <si>
-    <t>ai_polymyalgia</t>
-  </si>
-  <si>
-    <t>ai_scleroderma</t>
-  </si>
-  <si>
-    <t>ai_erythemato</t>
-  </si>
-  <si>
-    <t>ai_sjogren</t>
-  </si>
-  <si>
-    <t>ai_spondili</t>
-  </si>
-  <si>
-    <t>ai_granulomato</t>
-  </si>
-  <si>
-    <t>ai_celiac</t>
-  </si>
-  <si>
-    <t>ai_crohn</t>
-  </si>
-  <si>
-    <t>ai_colitis</t>
-  </si>
-  <si>
-    <t>ai_pernicious</t>
-  </si>
-  <si>
-    <t>ai_hemolytic</t>
-  </si>
-  <si>
-    <t>ai_purpura</t>
-  </si>
-  <si>
-    <t>ai_sclerosis</t>
-  </si>
-  <si>
-    <t>ai_guillainbar</t>
-  </si>
-  <si>
-    <t>ai_gravis</t>
-  </si>
-  <si>
-    <t>ai_pemphigus</t>
-  </si>
-  <si>
-    <t>ai_psoriasis</t>
-  </si>
-  <si>
-    <t>ai_areata</t>
-  </si>
-  <si>
-    <t>ai_vitiligo</t>
-  </si>
-  <si>
-    <t>ai_endocrine</t>
-  </si>
-  <si>
-    <t>ai_connective</t>
-  </si>
-  <si>
-    <t>ai_gastrointest</t>
-  </si>
-  <si>
-    <t>ai_blood</t>
-  </si>
-  <si>
-    <t>ai_nervous</t>
-  </si>
-  <si>
-    <t>ai_skin</t>
-  </si>
-  <si>
-    <t>autoimmune</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>allergies</t>
-  </si>
-  <si>
-    <t>sib1_sex1_est</t>
-  </si>
-  <si>
-    <t>sib1_sex1_se</t>
-  </si>
-  <si>
-    <t>sib1_sex1_n</t>
-  </si>
-  <si>
-    <t>sib1_sex0_est</t>
-  </si>
-  <si>
-    <t>sib1_sex0_se</t>
-  </si>
-  <si>
-    <t>sib1_sex0_n</t>
+    <t>Pat. cousin (m) log(HR)</t>
   </si>
 </sst>
 </file>
@@ -646,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,12 +697,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -993,11 +858,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1380,7 +1251,7 @@
   <dimension ref="A1:BQ93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1388,7 +1259,7 @@
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" ht="64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1398,203 +1269,203 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>62</v>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:69">
@@ -1605,7 +1476,7 @@
         <v>0.92592592592592593</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1.8690519999999999</v>
@@ -1631,28 +1502,28 @@
       <c r="Q2">
         <v>0.1533621</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>44</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="5">
         <v>0.88778550000000001</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="5">
         <v>0.177397</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="5">
         <v>33</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="5">
         <v>1.1956610000000001</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="5">
         <v>7.8539999999999999E-2</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="5">
         <v>180</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="5">
         <v>0.70371079999999997</v>
       </c>
       <c r="Z2">
@@ -1760,7 +1631,7 @@
         <v>0.97759259259259268</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1.22448</v>
@@ -1786,28 +1657,28 @@
       <c r="Q3">
         <v>5.0829699999999998E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="5">
         <v>492</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>0.32096839999999999</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="5">
         <v>5.0827299999999999E-2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="5">
         <v>487</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="5">
         <v>0.51581109999999997</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="5">
         <v>4.7285599999999997E-2</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="5">
         <v>602</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="5">
         <v>0.3023613</v>
       </c>
       <c r="Z3">
@@ -1951,7 +1822,7 @@
         <v>3.290509259259259E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2.8617669999999999</v>
@@ -2151,7 +2022,7 @@
         <v>8.6203703703703713E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0.96715680000000004</v>
@@ -2360,7 +2231,7 @@
         <v>0.138125</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2.0236990000000001</v>
@@ -2569,7 +2440,7 @@
         <v>0.19173611111111111</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2.0687120000000001</v>
@@ -2778,7 +2649,7 @@
         <v>0.23577546296296295</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1.2096819999999999</v>
@@ -2987,7 +2858,7 @@
         <v>0.27789351851851851</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1.541582</v>
@@ -3196,7 +3067,7 @@
         <v>0.32339120370370372</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1.158258</v>
@@ -3405,7 +3276,7 @@
         <v>0.36693287037037042</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1.43136</v>
@@ -3614,7 +3485,7 @@
         <v>0.41167824074074072</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1.60389</v>
@@ -3823,7 +3694,7 @@
         <v>0.45563657407407404</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1.099861</v>
@@ -4023,7 +3894,7 @@
         <v>0.5057638888888889</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1.1046130000000001</v>
@@ -4160,7 +4031,7 @@
         <v>0.5466550925925926</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1.026238</v>
@@ -4369,7 +4240,7 @@
         <v>0.59284722222222219</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>2.9540449999999998</v>
@@ -4578,7 +4449,7 @@
         <v>0.6388194444444445</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2.6131700000000002</v>
@@ -4769,7 +4640,7 @@
         <v>0.68344907407407407</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2.1329020000000001</v>
@@ -4978,7 +4849,7 @@
         <v>0.72857638888888887</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>2.0465360000000001</v>
@@ -5151,7 +5022,7 @@
         <v>0.77949074074074076</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>2.6136529999999998</v>
@@ -5270,7 +5141,7 @@
         <v>0.81562499999999993</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1.3875120000000001</v>
@@ -5479,7 +5350,7 @@
         <v>0.86869212962962961</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0.1025763</v>
@@ -5688,7 +5559,7 @@
         <v>0.91700231481481476</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0.51277170000000005</v>
@@ -5897,7 +5768,7 @@
         <v>0.96971064814814811</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>6.7299300000000006E-2</v>
@@ -6106,7 +5977,7 @@
         <v>1.4409722222222221E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>1.5126820000000001</v>
@@ -6315,7 +6186,7 @@
         <v>5.5543981481481486E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>-0.59259740000000005</v>
@@ -6488,7 +6359,7 @@
         <v>9.5069444444444443E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>-8.0984000000000004E-3</v>
@@ -6697,7 +6568,7 @@
         <v>0.13642361111111112</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>-0.2243549</v>
@@ -6906,7 +6777,7 @@
         <v>0.17989583333333334</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>0.72412600000000005</v>
@@ -7115,7 +6986,7 @@
         <v>0.22435185185185183</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>-0.81699739999999998</v>
@@ -7243,7 +7114,7 @@
         <v>0.26043981481481482</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>-0.71309429999999996</v>
@@ -7371,7 +7242,7 @@
         <v>0.29502314814814817</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>0.41801369999999999</v>
@@ -7580,7 +7451,7 @@
         <v>0.33710648148148148</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>1.305412</v>
@@ -7780,7 +7651,7 @@
         <v>0.3808449074074074</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>0.89442880000000002</v>
@@ -7989,7 +7860,7 @@
         <v>0.42726851851851855</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>-6.6016199999999997E-2</v>
@@ -8198,7 +8069,7 @@
         <v>0.47357638888888887</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0.49907390000000001</v>
@@ -8407,7 +8278,7 @@
         <v>0.51905092592592594</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>0.22162999999999999</v>
@@ -8598,7 +8469,7 @@
         <v>0.56142361111111116</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>3.7279699999999999E-2</v>
@@ -8771,7 +8642,7 @@
         <v>0.60206018518518511</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>0.75539730000000005</v>
@@ -8980,7 +8851,7 @@
         <v>0.64451388888888894</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>0.54042570000000001</v>
@@ -9189,7 +9060,7 @@
         <v>0.69010416666666663</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>0.37436049999999998</v>
@@ -9398,7 +9269,7 @@
         <v>0.73603009259259267</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0.60199610000000003</v>
@@ -9607,7 +9478,7 @@
         <v>0.78156250000000005</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>2.72261E-2</v>
@@ -9816,7 +9687,7 @@
         <v>0.82232638888888887</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>1.828991</v>
@@ -10025,7 +9896,7 @@
         <v>0.86383101851851851</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>1.7307980000000001</v>
@@ -10207,7 +10078,7 @@
         <v>0.90326388888888898</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="D46">
         <v>0.79149539999999996</v>
@@ -10416,7 +10287,7 @@
         <v>0.94534722222222223</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>0.35926409999999998</v>
@@ -10625,7 +10496,7 @@
         <v>0.98642361111111121</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <v>0.7049822</v>
@@ -10726,7 +10597,7 @@
         <v>1.4328703703703703E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>1.2150879999999999</v>
@@ -10917,7 +10788,7 @@
         <v>5.424768518518519E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="AH50">
         <v>5.6686999999999996E-3</v>
@@ -10964,7 +10835,7 @@
         <v>6.7013888888888887E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G51">
         <v>0.41757870000000002</v>
@@ -11137,7 +11008,7 @@
         <v>9.9409722222222219E-2</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>0.87434460000000003</v>
@@ -11346,7 +11217,7 @@
         <v>0.14251157407407408</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>1.6616280000000001</v>
@@ -11555,7 +11426,7 @@
         <v>0.18690972222222221</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>0.191943</v>
@@ -11764,7 +11635,7 @@
         <v>0.22711805555555556</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>1.210412</v>
@@ -11937,7 +11808,7 @@
         <v>0.26538194444444446</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>1.1502079999999999</v>
@@ -12128,7 +11999,7 @@
         <v>0.30479166666666668</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>2.059815</v>
@@ -12337,7 +12208,7 @@
         <v>0.34483796296296299</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>1.156542</v>
@@ -12546,7 +12417,7 @@
         <v>0.38646990740740739</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <v>6.7299300000000006E-2</v>
@@ -12755,7 +12626,7 @@
         <v>0.42728009259259259</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>0.73438099999999995</v>
@@ -12919,7 +12790,7 @@
         <v>0.4602430555555555</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>7.3315699999999998E-2</v>
@@ -13020,7 +12891,7 @@
         <v>0.489224537037037</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="AB62">
         <v>0.61109270000000004</v>
@@ -13112,7 +12983,7 @@
         <v>0.51362268518518517</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>0.59552539999999998</v>
@@ -13312,7 +13183,7 @@
         <v>0.55466435185185181</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>5.3149200000000001E-2</v>
@@ -13503,7 +13374,7 @@
         <v>0.59475694444444438</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="AH65">
         <v>0.2267487</v>
@@ -13541,7 +13412,7 @@
         <v>0.60718749999999999</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AH66">
         <v>0.1004699</v>
@@ -13588,7 +13459,7 @@
         <v>0.62031249999999993</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="AH67">
         <v>0.13491610000000001</v>
@@ -13644,7 +13515,7 @@
         <v>0.63364583333333335</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="AB68">
         <v>-3.0890399999999998E-2</v>
@@ -13736,7 +13607,7 @@
         <v>0.65437500000000004</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="AB69">
         <v>0.71462769999999998</v>
@@ -13801,7 +13672,7 @@
         <v>0.66827546296296303</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB70">
         <v>-4.9345800000000002E-2</v>
@@ -13911,7 +13782,7 @@
         <v>0.68983796296296296</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:69">
@@ -13922,7 +13793,7 @@
         <v>0.70040509259259265</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D72">
         <v>0.28272209999999998</v>
@@ -14113,7 +13984,7 @@
         <v>0.73949074074074073</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D73">
         <v>4.32863E-2</v>
@@ -14322,7 +14193,7 @@
         <v>0.77953703703703703</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D74">
         <v>-0.37050759999999999</v>
@@ -14531,7 +14402,7 @@
         <v>0.81940972222222219</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AB75">
         <v>1.28756</v>
@@ -14596,7 +14467,7 @@
         <v>0.83306712962962959</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AH76">
         <v>0.31842690000000001</v>
@@ -14625,7 +14496,7 @@
         <v>0.84465277777777781</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G77">
         <v>0.86022560000000003</v>
@@ -14753,7 +14624,7 @@
         <v>0.88099537037037035</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="S78">
         <v>0.24060480000000001</v>
@@ -14890,7 +14761,7 @@
         <v>0.90630787037037042</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AB79">
         <v>0.2419673</v>
@@ -15000,7 +14871,7 @@
         <v>0.92767361111111113</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AH80">
         <v>-0.41124250000000001</v>
@@ -15038,7 +14909,7 @@
         <v>0.93984953703703711</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:69">
@@ -15049,7 +14920,7 @@
         <v>0.95041666666666658</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="D82">
         <v>0.30752040000000003</v>
@@ -15240,7 +15111,7 @@
         <v>0.98940972222222223</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AB83">
         <v>0.34105150000000001</v>
@@ -15323,7 +15194,7 @@
         <v>1.5462962962962963E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="G84">
         <v>1.0231539999999999</v>
@@ -15370,7 +15241,7 @@
         <v>2.7974537037037034E-2</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D85">
         <v>0.2238763</v>
@@ -15579,7 +15450,7 @@
         <v>6.8252314814814807E-2</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="D86">
         <v>0.34263009999999999</v>
@@ -15788,7 +15659,7 @@
         <v>0.10891203703703704</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D87">
         <v>-1.4996000000000001E-2</v>
@@ -15997,7 +15868,7 @@
         <v>0.14898148148148146</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="G88">
         <v>0.82482409999999995</v>
@@ -16152,7 +16023,7 @@
         <v>0.18665509259259261</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="G89">
         <v>-0.15430479999999999</v>
@@ -16334,7 +16205,7 @@
         <v>0.22092592592592594</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="D90">
         <v>1.58037E-2</v>
@@ -16534,7 +16405,7 @@
         <v>0.2608449074074074</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D91">
         <v>0.23057639999999999</v>
@@ -16743,7 +16614,7 @@
         <v>0.30261574074074077</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <v>-8.9832099999999998E-2</v>
@@ -16952,7 +16823,7 @@
         <v>0.34394675925925927</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>-0.12716040000000001</v>
